--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_19_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_19_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1304492.719091436</v>
+        <v>1389860.025124696</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673263</v>
+        <v>4171427.157673264</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9480395.220959043</v>
+        <v>9480395.220959045</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>116.9725659584295</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015062</v>
+        <v>227.9187527607135</v>
       </c>
       <c r="G2" t="n">
         <v>263.7138800015062</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -753,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,10 +788,10 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>89.14525753719052</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -798,10 +800,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>61.22117863179675</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -823,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>29.44850838743381</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>15.07219909888208</v>
@@ -865,22 +867,22 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>141.7781543223992</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539855</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398513</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>219.7288597222347</v>
+        <v>72.14359727889084</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.24121754622982</v>
+        <v>0.3818498813781565</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -984,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.6252005425365</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813363</v>
+        <v>33.74703566813366</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,7 +1031,7 @@
         <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8350452710705</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>126.9790230954748</v>
+        <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679148</v>
+        <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
         <v>114.6998850700519</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>45.11981507984452</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>234.1055905923168</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>38.6940255298497</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1291,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>86.39586315681369</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1311,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>127.0444756515139</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,16 +1378,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>85.17289288835215</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1427,16 +1429,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>23.79925355567503</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>235.9375844494537</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>129.471426936784</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.6898441249713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>21.06047827574901</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1819,10 +1821,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1844,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>120.6088074159615</v>
+        <v>20.21682288978631</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2008,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>153.3276936306698</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>56.91071586901123</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>282.6988068886403</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2087,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>85.17289288835173</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2141,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>74.75769145492336</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2333,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>227.7359967734934</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2381,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>94.81275980261395</v>
       </c>
     </row>
     <row r="24">
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>217.091419992848</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>52.23490948285925</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>59.80165496339816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>279.9290008945228</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>84.82420463792805</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>73.18872674459146</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,19 +2797,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>57.92556443677201</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -2849,7 +2851,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>2.003425705032664</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>13.02719212039586</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>129.3290918536841</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3038,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>157.5027115851878</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>229.7965692041365</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>37.59617708813238</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>52.23490948285976</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>129.4829183512777</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3272,16 +3274,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>251.9459179647289</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>166.8327369628533</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>193.7989719911872</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3506,16 +3508,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>308.9203564757127</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>183.7445803284239</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3602,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3664,19 +3666,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>163.6898441249709</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3247335807555</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>99.59895631930689</v>
       </c>
       <c r="G41" t="n">
-        <v>188.2196394312102</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>113.510364625081</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>196.98992439718</v>
       </c>
     </row>
     <row r="44">
@@ -3986,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>16.34825474388459</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>76.31814835826439</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247588</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>79.4950548054469</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>143.0812453977537</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="C2" t="n">
-        <v>788.4778634388467</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="D2" t="n">
+        <v>900.5447187946892</v>
+      </c>
+      <c r="E2" t="n">
+        <v>900.5447187946892</v>
+      </c>
+      <c r="F2" t="n">
         <v>670.32375641013</v>
       </c>
-      <c r="E2" t="n">
-        <v>670.32375641013</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>403.9460998429521</v>
-      </c>
-      <c r="G2" t="n">
-        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
@@ -4334,16 +4336,16 @@
         <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004802</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4436,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166546</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>691.0742594480922</v>
+        <v>946.4739215287841</v>
       </c>
       <c r="U3" t="n">
-        <v>462.9384134849057</v>
+        <v>718.3380755655976</v>
       </c>
       <c r="V3" t="n">
-        <v>227.786305253163</v>
+        <v>483.1859673338549</v>
       </c>
       <c r="W3" t="n">
-        <v>227.786305253163</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>491.2864063532018</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="C4" t="n">
-        <v>491.2864063532018</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="D4" t="n">
-        <v>491.2864063532018</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E4" t="n">
-        <v>343.3733127708086</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F4" t="n">
-        <v>343.3733127708086</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
         <v>36.32155393434482</v>
@@ -4489,13 +4491,13 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227047</v>
@@ -4513,25 +4515,25 @@
         <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512191</v>
+        <v>782.8527349493953</v>
       </c>
       <c r="T4" t="n">
-        <v>719.2759572512191</v>
+        <v>557.3836987074096</v>
       </c>
       <c r="U4" t="n">
-        <v>719.2759572512191</v>
+        <v>291.0060421402317</v>
       </c>
       <c r="V4" t="n">
-        <v>719.2759572512191</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="W4" t="n">
-        <v>719.2759572512191</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="X4" t="n">
-        <v>491.2864063532018</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="Y4" t="n">
-        <v>491.2864063532018</v>
+        <v>36.32155393434482</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>956.2602415471065</v>
+        <v>1230.260167108328</v>
       </c>
       <c r="C5" t="n">
-        <v>956.2602415471065</v>
+        <v>861.2976501679159</v>
       </c>
       <c r="D5" t="n">
-        <v>956.2602415471065</v>
+        <v>861.2976501679159</v>
       </c>
       <c r="E5" t="n">
-        <v>956.2602415471065</v>
+        <v>861.2976501679159</v>
       </c>
       <c r="F5" t="n">
-        <v>545.2743367574989</v>
+        <v>450.3117453783084</v>
       </c>
       <c r="G5" t="n">
-        <v>128.8280277705478</v>
+        <v>33.86543639135735</v>
       </c>
       <c r="H5" t="n">
-        <v>128.8280277705478</v>
+        <v>33.86543639135735</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135738</v>
+        <v>33.86543639135735</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780281</v>
+        <v>108.4604468780277</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818698</v>
+        <v>270.9975490818693</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373995</v>
+        <v>509.5409587373987</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176496</v>
+        <v>806.6359018176483</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058971</v>
+        <v>1113.15196005897</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836699</v>
+        <v>1389.251120836697</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921691</v>
+        <v>1590.394365921689</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567869</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567869</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="S5" t="n">
-        <v>1551.674342961959</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="T5" t="n">
-        <v>1551.674342961959</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="U5" t="n">
-        <v>1551.674342961959</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="V5" t="n">
-        <v>1551.674342961959</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="W5" t="n">
-        <v>1329.725999808186</v>
+        <v>1620.399499084139</v>
       </c>
       <c r="X5" t="n">
-        <v>956.2602415471065</v>
+        <v>1620.399499084139</v>
       </c>
       <c r="Y5" t="n">
-        <v>956.2602415471065</v>
+        <v>1230.260167108328</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>205.0515306547897</v>
+        <v>449.1873012971336</v>
       </c>
       <c r="C6" t="n">
-        <v>205.0515306547897</v>
+        <v>449.1873012971336</v>
       </c>
       <c r="D6" t="n">
-        <v>205.0515306547897</v>
+        <v>449.1873012971336</v>
       </c>
       <c r="E6" t="n">
-        <v>205.0515306547897</v>
+        <v>449.1873012971336</v>
       </c>
       <c r="F6" t="n">
-        <v>205.0515306547897</v>
+        <v>302.6527433240185</v>
       </c>
       <c r="G6" t="n">
-        <v>67.95335120765398</v>
+        <v>165.5545638768828</v>
       </c>
       <c r="H6" t="n">
         <v>67.95335120765398</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135738</v>
+        <v>33.86543639135735</v>
       </c>
       <c r="J6" t="n">
-        <v>59.47586665324461</v>
+        <v>59.47586665324449</v>
       </c>
       <c r="K6" t="n">
-        <v>245.8075604192534</v>
+        <v>244.9679130574315</v>
       </c>
       <c r="L6" t="n">
-        <v>456.0761735419887</v>
+        <v>664.0526884004787</v>
       </c>
       <c r="M6" t="n">
-        <v>720.8065954987303</v>
+        <v>928.78311035722</v>
       </c>
       <c r="N6" t="n">
-        <v>1006.952288910459</v>
+        <v>1214.928803768948</v>
       </c>
       <c r="O6" t="n">
-        <v>1246.499900084656</v>
+        <v>1454.476414943146</v>
       </c>
       <c r="P6" t="n">
-        <v>1419.424910699126</v>
+        <v>1627.401425557615</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232582</v>
+        <v>1693.078019232581</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567869</v>
+        <v>1693.271819567867</v>
       </c>
       <c r="S6" t="n">
-        <v>1550.180157843115</v>
+        <v>1550.180157843113</v>
       </c>
       <c r="T6" t="n">
-        <v>1354.574272178453</v>
+        <v>1354.574272178452</v>
       </c>
       <c r="U6" t="n">
-        <v>1126.458064833938</v>
+        <v>1354.574272178452</v>
       </c>
       <c r="V6" t="n">
-        <v>891.305956602195</v>
+        <v>1119.422163946709</v>
       </c>
       <c r="W6" t="n">
-        <v>637.0685998739934</v>
+        <v>865.1848072185073</v>
       </c>
       <c r="X6" t="n">
-        <v>429.2170996684606</v>
+        <v>657.3333070129745</v>
       </c>
       <c r="Y6" t="n">
-        <v>221.4568009035067</v>
+        <v>449.5730082480206</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>893.4211194232461</v>
+        <v>619.8559977375062</v>
       </c>
       <c r="C7" t="n">
-        <v>724.4849364953392</v>
+        <v>619.8559977375062</v>
       </c>
       <c r="D7" t="n">
-        <v>724.4849364953392</v>
+        <v>469.7393583251704</v>
       </c>
       <c r="E7" t="n">
-        <v>576.5718429129461</v>
+        <v>469.7393583251704</v>
       </c>
       <c r="F7" t="n">
-        <v>429.6818954150357</v>
+        <v>469.7393583251704</v>
       </c>
       <c r="G7" t="n">
-        <v>301.4202559246571</v>
+        <v>301.4202559246572</v>
       </c>
       <c r="H7" t="n">
         <v>149.7239061590866</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135738</v>
+        <v>33.86543639135735</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652212</v>
+        <v>36.28512133652202</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128601</v>
+        <v>170.0982437128599</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119592</v>
+        <v>396.8594047119589</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191546</v>
+        <v>646.3363778191541</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361664</v>
+        <v>895.3159625361658</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021382</v>
+        <v>1109.272612021381</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580468</v>
+        <v>1268.828805580467</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397016</v>
+        <v>1295.862163397015</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397016</v>
+        <v>1250.286592609293</v>
       </c>
       <c r="S7" t="n">
-        <v>1295.862163397016</v>
+        <v>1250.286592609293</v>
       </c>
       <c r="T7" t="n">
-        <v>1295.862163397016</v>
+        <v>1250.286592609293</v>
       </c>
       <c r="U7" t="n">
-        <v>1295.862163397016</v>
+        <v>1250.286592609293</v>
       </c>
       <c r="V7" t="n">
-        <v>1295.862163397016</v>
+        <v>1250.286592609293</v>
       </c>
       <c r="W7" t="n">
-        <v>1295.862163397016</v>
+        <v>1250.286592609293</v>
       </c>
       <c r="X7" t="n">
-        <v>1295.862163397016</v>
+        <v>1022.297041711276</v>
       </c>
       <c r="Y7" t="n">
-        <v>1075.069584253486</v>
+        <v>801.5044625677459</v>
       </c>
     </row>
     <row r="8">
@@ -4778,55 +4780,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1605.165657180484</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="C8" t="n">
-        <v>1236.203140240072</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D8" t="n">
-        <v>877.9374416333219</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
         <v>2437.640120926626</v>
@@ -4835,19 +4837,19 @@
         <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W8" t="n">
-        <v>1605.165657180484</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X8" t="n">
-        <v>1605.165657180484</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="Y8" t="n">
-        <v>1605.165657180484</v>
+        <v>2228.894479532451</v>
       </c>
     </row>
     <row r="9">
@@ -4872,40 +4874,40 @@
         <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182522</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727985</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687206</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.770244284151</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>514.8620968941286</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C10" t="n">
-        <v>514.8620968941286</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>514.8620968941286</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941286</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
@@ -4984,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>985.9277317613289</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>696.5105617243684</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>696.5105617243684</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y10" t="n">
-        <v>696.5105617243684</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796265</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C11" t="n">
-        <v>552.8079389392149</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>194.5422403324644</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>108.5090151927147</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5060,7 +5062,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5069,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.97538618064</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943748</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5221,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1032.061124352531</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C14" t="n">
-        <v>663.0986074121195</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>304.832908805369</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>304.832908805369</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>304.832908805369</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>304.832908805369</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
@@ -5303,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>3084.535934008201</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.09759726723</v>
+        <v>3084.535934008201</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923659</v>
+        <v>3084.535934008201</v>
       </c>
       <c r="W14" t="n">
-        <v>2182.266054653544</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X14" t="n">
-        <v>1808.800296392465</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y14" t="n">
-        <v>1418.660964416653</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="15">
@@ -5346,16 +5348,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218342</v>
+        <v>504.1638263336251</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>335.2276434057183</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>185.1110039933825</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>185.1110039933825</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5458,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610489</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046018</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W16" t="n">
-        <v>680.6375233676413</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X16" t="n">
-        <v>452.6479724696239</v>
+        <v>906.604870307395</v>
       </c>
       <c r="Y16" t="n">
-        <v>231.8553933260938</v>
+        <v>685.8122911638649</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1590.514489367197</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C17" t="n">
-        <v>1221.551972426786</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D17" t="n">
-        <v>863.2862738200351</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
-        <v>477.498021221791</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5540,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U17" t="n">
-        <v>3093.488074938325</v>
+        <v>3099.207040771387</v>
       </c>
       <c r="V17" t="n">
-        <v>3093.488074938325</v>
+        <v>2768.144153427816</v>
       </c>
       <c r="W17" t="n">
-        <v>2740.71941966821</v>
+        <v>2768.144153427816</v>
       </c>
       <c r="X17" t="n">
-        <v>2367.25366140713</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y17" t="n">
-        <v>1977.114329431319</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>385.5649387724261</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C19" t="n">
-        <v>216.6287558445192</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218342</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5674,16 +5676,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5695,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V19" t="n">
-        <v>1134.908724368016</v>
+        <v>1550.651474445222</v>
       </c>
       <c r="W19" t="n">
-        <v>845.4915543310558</v>
+        <v>1261.234304408261</v>
       </c>
       <c r="X19" t="n">
-        <v>788.005982746196</v>
+        <v>1033.244753510244</v>
       </c>
       <c r="Y19" t="n">
-        <v>567.2134036026658</v>
+        <v>812.4521743667135</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>194.5422403324639</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
@@ -5750,13 +5752,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5780,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W20" t="n">
-        <v>2630.721789066531</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X20" t="n">
-        <v>2630.721789066531</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2630.721789066531</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>142.0249360836212</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C22" t="n">
-        <v>142.0249360836212</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D22" t="n">
-        <v>142.0249360836212</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E22" t="n">
-        <v>142.0249360836212</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>142.0249360836212</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>142.0249360836212</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>142.0249360836212</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U22" t="n">
-        <v>1134.908724368016</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V22" t="n">
-        <v>880.2242361621292</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W22" t="n">
-        <v>590.8070661251686</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X22" t="n">
-        <v>362.8175152271513</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y22" t="n">
-        <v>142.0249360836212</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.569348694472</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C23" t="n">
-        <v>1122.606831754061</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D23" t="n">
-        <v>1122.606831754061</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E23" t="n">
-        <v>1122.606831754061</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F23" t="n">
-        <v>711.620926964453</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
-        <v>296.5484768094495</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -5999,40 +6001,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V23" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W23" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.308520734406</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.169188758594</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>310.0549803959803</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C25" t="n">
-        <v>310.0549803959803</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D25" t="n">
-        <v>310.0549803959803</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E25" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F25" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
         <v>111.6347488791189</v>
@@ -6169,28 +6171,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T25" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U25" t="n">
-        <v>1134.908724368016</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V25" t="n">
-        <v>880.2242361621292</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W25" t="n">
-        <v>590.8070661251686</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X25" t="n">
-        <v>362.8175152271513</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y25" t="n">
-        <v>310.0549803959803</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1689.318139675982</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C26" t="n">
-        <v>1320.35562273557</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D26" t="n">
-        <v>1320.35562273557</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E26" t="n">
-        <v>934.5673701373257</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F26" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.097597267228</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>2866.097597267228</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W26" t="n">
-        <v>2513.328941997114</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X26" t="n">
-        <v>2139.863183736034</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y26" t="n">
-        <v>1749.723851760222</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="27">
@@ -6279,70 +6281,70 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G27" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N27" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U27" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X27" t="n">
         <v>1317.519490266131</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>385.564938772426</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="C28" t="n">
-        <v>216.6287558445191</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218339</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218339</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218339</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218339</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218339</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J28" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L28" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N28" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O28" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P28" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.46409084602</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T28" t="n">
-        <v>1645.778206672847</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U28" t="n">
-        <v>1560.097191887061</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V28" t="n">
-        <v>1305.412703681174</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W28" t="n">
-        <v>1015.995533644213</v>
+        <v>2204.60750287009</v>
       </c>
       <c r="X28" t="n">
-        <v>788.0059827461959</v>
+        <v>2204.60750287009</v>
       </c>
       <c r="Y28" t="n">
-        <v>567.2134036026657</v>
+        <v>2204.60750287009</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1250.80968089488</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C29" t="n">
-        <v>881.8471639544687</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D29" t="n">
-        <v>523.5814653477182</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="E29" t="n">
-        <v>523.5814653477182</v>
+        <v>167.0196863409693</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>167.0196863409693</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>167.0196863409693</v>
       </c>
       <c r="H29" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810557</v>
@@ -6470,43 +6472,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2753.783266466008</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2401.014611195894</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>2027.548852934814</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1637.409520959002</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6561,7 +6563,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
         <v>2564.909189125856</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>460.171619808316</v>
+        <v>2405.758056700422</v>
       </c>
       <c r="C31" t="n">
-        <v>460.171619808316</v>
+        <v>2236.821873772515</v>
       </c>
       <c r="D31" t="n">
-        <v>310.0549803959803</v>
+        <v>2086.705234360179</v>
       </c>
       <c r="E31" t="n">
-        <v>310.0549803959803</v>
+        <v>1938.792140777786</v>
       </c>
       <c r="F31" t="n">
-        <v>310.0549803959803</v>
+        <v>1791.902193279876</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>1624.199356654595</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>1477.982169872453</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J31" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K31" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L31" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M31" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N31" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O31" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P31" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q31" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.46409084602</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.778206672847</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T31" t="n">
-        <v>1424.011591242373</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U31" t="n">
-        <v>1134.908724368016</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V31" t="n">
-        <v>880.2242361621292</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W31" t="n">
-        <v>590.8070661251686</v>
+        <v>3036.188651572209</v>
       </c>
       <c r="X31" t="n">
-        <v>460.171619808316</v>
+        <v>2808.199100674192</v>
       </c>
       <c r="Y31" t="n">
-        <v>460.171619808316</v>
+        <v>2587.406521530662</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2051.278283189672</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C32" t="n">
-        <v>1682.315766249261</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D32" t="n">
-        <v>1324.05006764251</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E32" t="n">
-        <v>938.2618150442661</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H32" t="n">
         <v>66.51211643218339</v>
@@ -6704,7 +6706,7 @@
         <v>589.210621081055</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
@@ -6713,7 +6715,7 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
         <v>3018.302393296685</v>
@@ -6725,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794323</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450752</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W32" t="n">
-        <v>2424.744041450752</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X32" t="n">
-        <v>2051.278283189672</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y32" t="n">
-        <v>2051.278283189672</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
         <v>66.51211643218339</v>
@@ -6780,49 +6782,49 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1708.366253916657</v>
+        <v>2116.655189826065</v>
       </c>
       <c r="C34" t="n">
-        <v>1708.366253916657</v>
+        <v>1947.719006898159</v>
       </c>
       <c r="D34" t="n">
-        <v>1708.366253916657</v>
+        <v>1797.602367485823</v>
       </c>
       <c r="E34" t="n">
-        <v>1708.366253916657</v>
+        <v>1649.68927390343</v>
       </c>
       <c r="F34" t="n">
-        <v>1708.366253916657</v>
+        <v>1502.799326405519</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916657</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134515</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="I34" t="n">
         <v>1464.82338995286</v>
@@ -6880,28 +6882,28 @@
         <v>3325.60582160917</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366697</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193524</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T34" t="n">
-        <v>2822.32286476305</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U34" t="n">
-        <v>2533.219997888693</v>
+        <v>3036.502954734813</v>
       </c>
       <c r="V34" t="n">
-        <v>2278.535509682807</v>
+        <v>3036.502954734813</v>
       </c>
       <c r="W34" t="n">
-        <v>1989.118339645846</v>
+        <v>2747.085784697852</v>
       </c>
       <c r="X34" t="n">
-        <v>1761.128788747829</v>
+        <v>2519.096233799835</v>
       </c>
       <c r="Y34" t="n">
-        <v>1708.366253916657</v>
+        <v>2298.303654656305</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1501.213961756483</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C35" t="n">
-        <v>1132.251444816072</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D35" t="n">
-        <v>773.9857462093212</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E35" t="n">
-        <v>519.4949199823222</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
         <v>108.5090151927147</v>
@@ -6935,25 +6937,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6962,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U35" t="n">
-        <v>2961.784676410102</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V35" t="n">
-        <v>2630.721789066531</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W35" t="n">
-        <v>2277.953133796417</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="X35" t="n">
-        <v>2277.953133796417</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="Y35" t="n">
-        <v>1887.813801820605</v>
+        <v>2475.958265291417</v>
       </c>
     </row>
     <row r="36">
@@ -7017,10 +7019,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1611.713337450772</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C37" t="n">
-        <v>1611.713337450772</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D37" t="n">
-        <v>1611.713337450772</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E37" t="n">
-        <v>1611.713337450772</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.823389952861</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.823389952861</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193525</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>2822.322864763051</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U37" t="n">
-        <v>2533.219997888694</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V37" t="n">
-        <v>2278.535509682808</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W37" t="n">
-        <v>1989.118339645847</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="X37" t="n">
-        <v>1793.361802281011</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="Y37" t="n">
-        <v>1793.361802281011</v>
+        <v>1260.131596565902</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.569348694471</v>
+        <v>1032.06112435253</v>
       </c>
       <c r="C38" t="n">
-        <v>1122.60683175406</v>
+        <v>663.0986074121181</v>
       </c>
       <c r="D38" t="n">
-        <v>764.3411331473092</v>
+        <v>663.0986074121181</v>
       </c>
       <c r="E38" t="n">
-        <v>378.5528805490649</v>
+        <v>663.0986074121181</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218339</v>
+        <v>252.1127026225105</v>
       </c>
       <c r="G38" t="n">
         <v>66.51211643218339</v>
@@ -7175,10 +7177,10 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810549</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
@@ -7202,22 +7204,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V38" t="n">
-        <v>2994.542934265599</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W38" t="n">
-        <v>2641.774278995485</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.308520734405</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.169188758593</v>
+        <v>1418.660964416651</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7247,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
         <v>2407.411984886741</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>782.4929502983416</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="C40" t="n">
-        <v>782.4929502983416</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="D40" t="n">
-        <v>632.3763108860059</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="E40" t="n">
-        <v>484.4632173036127</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="F40" t="n">
-        <v>337.5732698057024</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="G40" t="n">
-        <v>169.8704331804213</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218339</v>
@@ -7336,46 +7338,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1615.697475415546</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1326.594608541189</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V40" t="n">
-        <v>1071.910120335302</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W40" t="n">
-        <v>782.4929502983416</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X40" t="n">
-        <v>782.4929502983416</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y40" t="n">
-        <v>782.4929502983416</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1822.632236038042</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.66971909763</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="D41" t="n">
-        <v>1095.40402049088</v>
+        <v>879.7731733615581</v>
       </c>
       <c r="E41" t="n">
-        <v>709.6157678926356</v>
+        <v>879.7731733615581</v>
       </c>
       <c r="F41" t="n">
-        <v>298.6298631030281</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
@@ -7424,37 +7426,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.60582160917</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339055</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077976</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102164</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7487,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7503,13 +7505,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1579.480323917589</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C43" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D43" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E43" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F43" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G43" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H43" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>3235.775364366697</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>3044.089480193524</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>2822.32286476305</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>2533.219997888693</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V43" t="n">
-        <v>2278.535509682807</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W43" t="n">
-        <v>1989.118339645846</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X43" t="n">
-        <v>1761.128788747829</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y43" t="n">
-        <v>1761.128788747829</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2303.170539913434</v>
+        <v>1221.525483338121</v>
       </c>
       <c r="C44" t="n">
-        <v>1934.208022973022</v>
+        <v>852.5629663977095</v>
       </c>
       <c r="D44" t="n">
-        <v>1575.942324366272</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E44" t="n">
-        <v>1190.154071768027</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F44" t="n">
-        <v>779.1681669784198</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
@@ -7676,22 +7678,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3309.092432978983</v>
       </c>
       <c r="U44" t="n">
-        <v>3119.628073993392</v>
+        <v>3055.56195625282</v>
       </c>
       <c r="V44" t="n">
-        <v>3042.53903524767</v>
+        <v>2724.499068909249</v>
       </c>
       <c r="W44" t="n">
-        <v>2689.770379977556</v>
+        <v>2371.730413639134</v>
       </c>
       <c r="X44" t="n">
-        <v>2689.770379977556</v>
+        <v>1998.264655378055</v>
       </c>
       <c r="Y44" t="n">
-        <v>2689.770379977556</v>
+        <v>1608.125323402243</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387288</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927764</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218339</v>
@@ -7737,40 +7739,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>463.6594280995005</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C46" t="n">
-        <v>294.7232451715936</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D46" t="n">
-        <v>214.4252100145765</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218339</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218339</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218339</v>
@@ -7828,28 +7830,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="U46" t="n">
-        <v>1638.191681214135</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="V46" t="n">
-        <v>1383.507193008248</v>
+        <v>1501.251696170064</v>
       </c>
       <c r="W46" t="n">
-        <v>1094.090022971288</v>
+        <v>1501.251696170064</v>
       </c>
       <c r="X46" t="n">
-        <v>866.1004720732703</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y46" t="n">
-        <v>645.3078929297402</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069063</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157931</v>
+        <v>25.82445471157942</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>65.05511571131646</v>
+        <v>64.20698706301181</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>210.9254163841536</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>265.0304328515148</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>54.9531451156659</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.9377812015499</v>
@@ -23264,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>296.7574771839096</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>362.4386851003786</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>58.67017993786678</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>74.44654320283618</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.14213605696602</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>124.3605697471822</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23671,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23732,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3863645429405</v>
+        <v>230.7783490691157</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>98.80994969315816</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>168.7989395200259</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100.0350347748403</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>296.7574771839101</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24029,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24145,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>21.59472895491476</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24221,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>66.87176761382705</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24269,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>291.4251788534397</v>
       </c>
     </row>
     <row r="24">
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24381,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>69.12041821276489</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>166.3497438692355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>322.9321867000824</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>102.001369177739</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24461,7 +24463,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,13 +24496,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>201.3876335676848</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>213.3342715919995</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24683,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>236.6821999505485</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24737,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>325.7488327651022</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>83.32522828944225</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>96.38056353535308</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24926,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>249.3733341565236</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>97.95568926599836</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>128.4296311708958</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>166.349743869235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>253.2509233122029</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25160,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>129.9844521075329</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25202,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>12.99924321908404</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>31.91068339784994</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25394,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>97.95568926599873</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>227.1771453250296</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25552,19 +25554,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2.335964134057321</v>
       </c>
       <c r="H40" t="n">
-        <v>42.43028133356525</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25628,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>307.2770894224045</v>
       </c>
       <c r="G41" t="n">
-        <v>222.7020862222432</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>53.73645647354682</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25804,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>21.59472895491476</v>
       </c>
     </row>
     <row r="44">
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>187.5697153957356</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>251.4341101118705</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>69.12041821276546</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>109.0563979260743</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>778832.4080198058</v>
+        <v>778832.4080198057</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778832.4080198057</v>
+        <v>778832.4080198059</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>778832.4080198056</v>
+        <v>778832.4080198058</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>778832.4080198058</v>
+        <v>778832.4080198057</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>778832.4080198056</v>
+        <v>778832.4080198057</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>778832.4080198056</v>
+        <v>778832.4080198057</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>778832.4080198054</v>
+        <v>778832.4080198057</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>778832.4080198054</v>
+        <v>778832.4080198057</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>778832.4080198054</v>
+        <v>778832.4080198056</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778832.4080198057</v>
+        <v>778832.4080198056</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
+        <v>513151.1061651768</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.106165177</v>
-      </c>
-      <c r="D2" t="n">
-        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
         <v>426246.3737136506</v>
       </c>
       <c r="F2" t="n">
+        <v>426246.3737136506</v>
+      </c>
+      <c r="G2" t="n">
         <v>426246.3737136507</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>426246.3737136506</v>
-      </c>
-      <c r="H2" t="n">
-        <v>426246.3737136507</v>
       </c>
       <c r="I2" t="n">
         <v>426246.3737136507</v>
       </c>
       <c r="J2" t="n">
+        <v>426246.3737136506</v>
+      </c>
+      <c r="K2" t="n">
         <v>426246.3737136508</v>
       </c>
-      <c r="K2" t="n">
-        <v>426246.3737136507</v>
-      </c>
       <c r="L2" t="n">
-        <v>426246.3737136507</v>
+        <v>426246.3737136509</v>
       </c>
       <c r="M2" t="n">
-        <v>426246.3737136507</v>
+        <v>426246.3737136509</v>
       </c>
       <c r="N2" t="n">
-        <v>426246.3737136508</v>
+        <v>426246.3737136506</v>
       </c>
       <c r="O2" t="n">
-        <v>426246.3737136507</v>
+        <v>426246.3737136509</v>
       </c>
       <c r="P2" t="n">
-        <v>426246.3737136507</v>
+        <v>426246.3737136509</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739507</v>
+        <v>176672.6241739501</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819068</v>
+        <v>223886.3093819073</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171905</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911403</v>
+        <v>68999.1544191142</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640825</v>
+        <v>41076.98154640796</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946798</v>
+        <v>54988.29121946816</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341497</v>
+        <v>47552.26579341491</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253016.7649073351</v>
+        <v>253016.7649073352</v>
       </c>
       <c r="C4" t="n">
-        <v>205717.3645450218</v>
+        <v>205717.364545022</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676995</v>
+        <v>142746.9572676994</v>
       </c>
       <c r="E4" t="n">
         <v>12210.17896214071</v>
@@ -26442,10 +26444,10 @@
         <v>12210.17896214071</v>
       </c>
       <c r="K4" t="n">
-        <v>12210.17896214072</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="L4" t="n">
-        <v>12210.17896214073</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="M4" t="n">
         <v>12210.17896214071</v>
@@ -26454,10 +26456,10 @@
         <v>12210.17896214071</v>
       </c>
       <c r="O4" t="n">
-        <v>12210.17896214073</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="P4" t="n">
-        <v>12210.17896214074</v>
+        <v>12210.17896214071</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.8716792312</v>
+        <v>75746.87167923116</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26482,19 +26484,19 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="J5" t="n">
-        <v>74306.34056139327</v>
-      </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139327</v>
@@ -26506,7 +26508,7 @@
         <v>74306.34056139327</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139327</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-483001.4425376173</v>
+        <v>-483001.4425376175</v>
       </c>
       <c r="C6" t="n">
-        <v>55014.24576697327</v>
+        <v>55014.2457669736</v>
       </c>
       <c r="D6" t="n">
-        <v>53580.06707572614</v>
+        <v>53580.06707572551</v>
       </c>
       <c r="E6" t="n">
-        <v>157656.8743729261</v>
+        <v>157656.874372926</v>
       </c>
       <c r="F6" t="n">
-        <v>339729.8541901167</v>
+        <v>339729.8541901166</v>
       </c>
       <c r="G6" t="n">
-        <v>339729.8541901166</v>
+        <v>339729.8541901165</v>
       </c>
       <c r="H6" t="n">
-        <v>339729.8541901169</v>
+        <v>339729.8541901168</v>
       </c>
       <c r="I6" t="n">
-        <v>339729.8541901167</v>
+        <v>339729.854190117</v>
       </c>
       <c r="J6" t="n">
-        <v>270730.6997710028</v>
+        <v>270730.6997710024</v>
       </c>
       <c r="K6" t="n">
-        <v>298652.8726437085</v>
+        <v>298652.8726437088</v>
       </c>
       <c r="L6" t="n">
         <v>284741.5629706488</v>
       </c>
       <c r="M6" t="n">
-        <v>292177.5883967018</v>
+        <v>292177.588396702</v>
       </c>
       <c r="N6" t="n">
+        <v>339729.8541901166</v>
+      </c>
+      <c r="O6" t="n">
         <v>339729.8541901169</v>
       </c>
-      <c r="O6" t="n">
-        <v>339729.8541901167</v>
-      </c>
       <c r="P6" t="n">
-        <v>339729.8541901167</v>
+        <v>339729.8541901169</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26740,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908067</v>
+        <v>751.4467899908062</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26750,7 +26752,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26790,31 +26792,31 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919673</v>
+        <v>423.3179548919668</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022924</v>
@@ -26826,7 +26828,7 @@
         <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022924</v>
@@ -26960,25 +26962,25 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213283</v>
+        <v>137.3917762213279</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267325</v>
+        <v>182.618102126733</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,37 +27014,37 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904611</v>
+        <v>159.6040748904605</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080715</v>
+        <v>217.2668772080721</v>
       </c>
       <c r="E4" t="n">
+        <v>190.8166233022538</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>263.7138800015067</v>
+      </c>
+      <c r="K4" t="n">
+        <v>159.6040748904602</v>
+      </c>
+      <c r="L4" t="n">
+        <v>217.266877208072</v>
+      </c>
+      <c r="M4" t="n">
         <v>190.816623302254</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>263.713880001506</v>
-      </c>
-      <c r="K4" t="n">
-        <v>159.6040748904613</v>
-      </c>
-      <c r="L4" t="n">
-        <v>217.2668772080713</v>
-      </c>
-      <c r="M4" t="n">
-        <v>190.8166233022542</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27260,13 @@
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904611</v>
+        <v>159.6040748904605</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080715</v>
+        <v>217.2668772080721</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>237.7104756622534</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>178.9572929809979</v>
       </c>
       <c r="G2" t="n">
         <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776178</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27473,10 +27475,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>105.6957300476863</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,10 +27520,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>144.5518065716807</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27543,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>137.4351586511128</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>62.94100992119451</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.5447505011713</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27634,7 +27636,7 @@
         <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.01296546539862</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.1815018398514</v>
       </c>
       <c r="T5" t="n">
         <v>209.8718965061022</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>129.5121089951784</v>
+        <v>277.0973714385221</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2919661036375</v>
+        <v>166.1513337684892</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27704,13 +27706,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253649</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27749,7 +27751,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27774,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>39.65688828103335</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887346</v>
+        <v>71.24479230889011</v>
       </c>
       <c r="S7" t="n">
         <v>200.4014587515235</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>131.1673011786908</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,13 +27909,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>310.5469431875633</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>80.85095794181414</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>125.0931676723141</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053492</v>
+        <v>3.02089161805349</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339033</v>
+        <v>30.93770628339031</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050074</v>
+        <v>116.4629241050073</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677678</v>
+        <v>256.3943999677676</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599722</v>
+        <v>384.268742159972</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159768</v>
+        <v>476.7193540159765</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285356</v>
+        <v>530.4421353285353</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383302</v>
+        <v>539.0252436383298</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113107</v>
+        <v>508.9862526113104</v>
       </c>
       <c r="P5" t="n">
-        <v>434.407990790615</v>
+        <v>434.4079907906147</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190742</v>
+        <v>326.2223097190741</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025528</v>
+        <v>189.7610831025527</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639402</v>
+        <v>68.83856774639398</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802917</v>
+        <v>13.22395305802916</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442793</v>
+        <v>0.2416713294442792</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546264</v>
+        <v>1.616319510546262</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395997</v>
+        <v>15.61024369395996</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328144</v>
+        <v>55.64959718328141</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433205</v>
+        <v>152.7067481433204</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499201</v>
+        <v>261.00015534992</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876877</v>
+        <v>350.9469182876874</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449896</v>
+        <v>409.5385005449893</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345741</v>
+        <v>420.3777660345738</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587858</v>
+        <v>384.5635284587855</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077335</v>
+        <v>308.6461353077332</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970985</v>
+        <v>206.3217676970984</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670742</v>
+        <v>100.3535920670741</v>
       </c>
       <c r="S6" t="n">
-        <v>30.0224259963308</v>
+        <v>30.02242599633078</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807086</v>
+        <v>6.514901886807082</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043595</v>
+        <v>0.1063368099043594</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950635</v>
+        <v>1.355067981950634</v>
       </c>
       <c r="H7" t="n">
         <v>12.04778623952474</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720638</v>
+        <v>40.75058985720635</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390988</v>
+        <v>95.80330632390982</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029919</v>
+        <v>157.4342619029918</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165517</v>
+        <v>201.4616525165516</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706799</v>
+        <v>212.4130655706798</v>
       </c>
       <c r="N7" t="n">
-        <v>207.362357637955</v>
+        <v>207.3623576379549</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488044</v>
+        <v>191.5326998488042</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170113</v>
+        <v>163.8893130170112</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886118</v>
+        <v>113.4684652886117</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843489</v>
+        <v>60.92878398843486</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544878</v>
+        <v>23.61513928544877</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879984</v>
+        <v>5.789835922879981</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548926</v>
+        <v>0.07391279901548921</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32801,7 +32803,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P24" t="n">
         <v>447.6103584002926</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33500,7 +33502,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138795</v>
@@ -33737,7 +33739,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
@@ -33746,7 +33748,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.7086478970249</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095031</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,37 +33964,37 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002938</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34001,7 +34003,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34050,16 +34052,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
         <v>300.7247737883114</v>
@@ -34068,19 +34070,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780294</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563578</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,37 +34201,37 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34238,7 +34240,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34287,16 +34289,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
         <v>300.7247737883114</v>
@@ -34305,19 +34307,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780294</v>
@@ -34457,7 +34459,7 @@
         <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837935</v>
       </c>
       <c r="O45" t="n">
         <v>557.7086478970248</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34796,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108152</v>
+        <v>75.34849544108135</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149916</v>
+        <v>164.1788911149914</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459896</v>
+        <v>240.9529390459893</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012629</v>
+        <v>300.0959021012626</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417392</v>
+        <v>309.6121800417389</v>
       </c>
       <c r="O5" t="n">
-        <v>278.888041189624</v>
+        <v>278.8880411896237</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353455</v>
+        <v>203.1749950353452</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446248</v>
+        <v>103.9166198446246</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86912147665376</v>
+        <v>25.86912147665367</v>
       </c>
       <c r="K6" t="n">
-        <v>188.2138320868776</v>
+        <v>187.3657034385728</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078135</v>
+        <v>423.3179548919668</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229713</v>
+        <v>267.404466622971</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512408</v>
+        <v>289.0360539512404</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143413</v>
+        <v>241.9672840143411</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934032</v>
+        <v>174.671727893403</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.4172813469261</v>
+        <v>66.33999361107686</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144310557</v>
+        <v>0.1957579144309989</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237105</v>
+        <v>2.444126207237048</v>
       </c>
       <c r="K7" t="n">
         <v>135.164770077109</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768678</v>
+        <v>229.0516777768677</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325205</v>
+        <v>251.9969425325204</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171836</v>
+        <v>251.4945300171835</v>
       </c>
       <c r="O7" t="n">
-        <v>216.117827762844</v>
+        <v>216.1178277628439</v>
       </c>
       <c r="P7" t="n">
         <v>161.1678722819047</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691743</v>
+        <v>27.30642203691735</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35255,7 +35257,7 @@
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>562.710793489365</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820405</v>
@@ -35267,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>304.6326742391982</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340048</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36449,7 +36451,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340053</v>
@@ -37385,7 +37387,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
@@ -37394,7 +37396,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525805</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129122</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859635</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222572</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38105,7 +38107,7 @@
         <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004602</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525803</v>
